--- a/NecocoProject/docs/画面設計_Iteration1_20130310 .xlsx
+++ b/NecocoProject/docs/画面設計_Iteration1_20130310 .xlsx
@@ -10,13 +10,14 @@
     <sheet name="画面設計" sheetId="5" r:id="rId1"/>
     <sheet name="カレンダーコンポーネント詳細" sheetId="2" r:id="rId2"/>
     <sheet name="画面イメージ" sheetId="1" r:id="rId3"/>
+    <sheet name="ユースケース記述" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="133">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -181,42 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カレンダーで選択されている日付を表示する。
-形式：YYYY年MM月DD日
-初期値：現在の日時</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,13 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期値：テキスト1～3</t>
-    <rPh sb="0" eb="3">
-      <t>ショキチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストエリア1～3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -248,113 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日記入力欄。
-日記を入力することができる。各テキストエリアは最低40文字～7行の入力を可能とする。7行以上の書き込みがあった場合はスクロールバーによってさらに入力を可能とする。
-各テキストエリアの最大文字数は840文字とする。最大文字数を超えての入力はできない。
-各テキストエリアはTabキーによってフォーカスをテキストエリア1 &gt; 2 &gt; 3 &gt; ボタン &gt; テキストエリア1　と移動する。
-初期値：選択された日付に対応する日記1～3</t>
-    <rPh sb="0" eb="2">
-      <t>ニッキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニッキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="100" eb="103">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="115" eb="118">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="197" eb="200">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>ニッキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -368,274 +219,6 @@
   </si>
   <si>
     <t>panel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダーを表示する。カレンダーコンポーネント詳細を参照。
-初期値：現在の日時</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下記コンポーネントを保持する全体のパネル。
-Close処理を行う際、テキストエリア1～3にDBとは異なる入力がされていた場合は、「YYYY年MM月DD日の日記を保存しますか？」というダイアログを出力し、「はい」「いいえ」「キャンセル」で選択させる。「はい」を選択した場合は日記の更新処理を行った後、アプリを終了する。「いいえ」を選択した場合はそのままアプリを終了する。「キャンセル」を選択した場合はダイアログを閉じる。
-デフォルトでは「はい」にフォーカスし、Tabによりフォーカスを移動する。選択はクリックまたはEnterキーで行う。
-初期フォーカス：テキストエリア1</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ニッキ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ニッキ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ノチ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="241" eb="243">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新ボタン。
-入力された日記の更新を行う。
-クリックまたはフォーカス時にEnterを押すと、テキストエリア1～3の内容をDBに更新する。更新に成功した場合は「日記を更新しました」というダイアログを表示する。更新に失敗した場合はエラーメッセージを表示する。
-更新処理を行う際、DBにテキストデータが存在するのに、対応するテキストエリアが空欄になっている場合には「テキストXが空欄に変更されています。更新してよろしいですか？」という確認ダイアログを表示する。確認ダイアログでは「はい」「キャンセル」で選択し、「はい」を選択すると更新処理を続行する。「キャンセル」を選択した場合は更新処理を中断する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニッキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ニッキ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="257" eb="259">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="262" eb="264">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="264" eb="266">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="267" eb="269">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="280" eb="282">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="284" eb="286">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="289" eb="291">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="292" eb="294">
-      <t>チュウダン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -646,9 +229,1429 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新日：2013/03/10 revision:1</t>
+    <t>更新日：2013/03/10 revision:2</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>カレンダーで選択されている日付を表示する。
+形式：YYYY年MM月DD日
+初期値：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCの現在の日時を取得して表示</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示テキスト：テキスト1～3</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはカレンダーに現在の日付をセットする</t>
+    <rPh sb="11" eb="13">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の日記の表示</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは現在の日付に入力された日記情報(テキスト1～3)をDBから取得する</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは日記情報(テキスト1～3)をテキストエリア1～3に表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはテキストエリア1にフォーカスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日記の登録</t>
+    <rPh sb="0" eb="2">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはボタンをクリックまたはフォーカス時にEnter押下する</t>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはテキストエリア1～3に文字（各0～780文字）を入力する</t>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはテキストエリア1～3の文字列をDBに送信する</t>
+    <rPh sb="16" eb="19">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは「日記を更新しました」ダイアログを表示する</t>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターは「日記を更新しました」ダイアログで「はい」をクリックまたはフォーカス時にEnter押下する</t>
+    <rPh sb="6" eb="8">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3a-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>系列</t>
+    <rPh sb="0" eb="2">
+      <t>ケイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース記述</t>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いずれかのテキストエリアの文字列が781文字以上である場合</t>
+    <rPh sb="13" eb="16">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース終了</t>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3a-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBへの送信に失敗した場合</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは781文字以上であるテキストエリアに対応するラベルの右に、赤文字で「入力文字数が780文字を超えています。」と表示する</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは「日記の更新に失敗しました」ダイアログを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターは「日記の更新に失敗しました」ダイアログで「OK」をクリックまたはフォーカス時にEnter押下する</t>
+    <rPh sb="42" eb="43">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは日記情報(テキスト1～3)を保存しておく</t>
+    <rPh sb="5" eb="7">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5a-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5a-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5a-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは「テキストXが空欄に変更されています。更新してよろしいですか？」ダイアログを表示する</t>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列5に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a-2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a-2b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターがダイアログで「はい」をクリックまたはフォーカス時にEnter押下した場合</t>
+    <rPh sb="28" eb="29">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターがダイアログで「いいえ」をクリックまたはフォーカス時にEnter押下した場合</t>
+    <rPh sb="29" eb="30">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a-2a-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4a-2b-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付の切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはカレンダーの日付をクリックする</t>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはクリックされたカレンダーの日付を取得する</t>
+    <rPh sb="18" eb="20">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは日付に対応する日記情報(テキスト1～3)をDBから取得する</t>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは選択された日付をカレンダーでハイライトする</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは「日記が更新されていますが、日付を変更してよろしいですか？」ダイアログを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列3に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターがダイアログで「OK」をクリックまたはフォーカス時にEnter押下した場合</t>
+    <rPh sb="28" eb="29">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2a-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターがダイアログで「キャンセル」をクリックまたはフォーカス時にEnter押下した場合</t>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2b-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBからの取得に失敗した場合</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは「日記の取得に失敗しました」ダイアログを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはダイアログで「OK」をクリックまたはフォーカス時にEnter押下する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日記情報(テキスト1～3)のいずれかがNullまたは空文字列の場合</t>
+    <rPh sb="0" eb="2">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは対応するテキストエリア1～3に空文字列をセットする</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはユースケース#1-5または#3-6で保存していた日記情報(テキスト1～3)と、テキストエリア1～3の文字列を比較する</t>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース#1-5または#3-6で保存していた日記情報(テキスト1～3)が空でなく、日記情報と対応するテキストエリアの文字列が異なる場合</t>
+    <rPh sb="38" eb="39">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはテキストエリア1～3の文字数をチェックし、各780文字以下であることを確かめる</t>
+    <rPh sb="16" eb="19">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションを終了する</t>
+    <rPh sb="9" eb="11">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはアプリケーション右上の×ボタンをクリックまたはAlt+F4を実行する</t>
+    <rPh sb="13" eb="15">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース#1-5または#3-6で保存していた日記情報(テキスト1～3)と、テキストエリア1～3の文字列がいずれか異なる場合</t>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはアプリケーションを終了する</t>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは「日記を更新して終了しますか？」ダイアログを表示する。</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2a-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2a-1a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2a-2a</t>
+  </si>
+  <si>
+    <t>2a-2a-3a</t>
+  </si>
+  <si>
+    <t>2a-2a-4a</t>
+  </si>
+  <si>
+    <t>2a-2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a-2c-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>カレンダーを表示する。カレンダーコンポーネント詳細を参照。
+初期値：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCの現在の日時を取得して表示</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン。
+入力された日記の更新を行う。
+クリックまたはフォーカス時にEnterを押すと、テキストエリア1～3の内容をDBに更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは現在の日付(YYYY年MM月DD日)をPCより取得し、タイトルラベルに表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは日付(YYYY年MM月DD日)をタイトルラベルに表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記コンポーネントを保持する全体のパネル。
+サイズの変更が可能。
+初期フォーカス：テキストエリア1
+サイズ変更：テキストエリア1～3の最小サイズを下回らなければ変更可能</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">日記入力欄。
+日記を入力することができる。各テキストエリアはデフォルトで40文字×7行分を表示する。7行以上の書き込みがあった場合はスクロールバーによってさらに表示を可能とする。
+各テキストエリアの最大文字数は840文字とする。最大文字数を超えての入力はできない。
+各テキストエリアはTabキーによってフォーカスをテキストエリア1 &gt; 2 &gt; 3 &gt; ボタン &gt; テキストエリア1　と移動する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enterキー押下時には通常の文字入力とみなし、特別な処理は行わない。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+初期値：選択された日付に対応する日記1～3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最小サイズ：40文字×7行
+初期サイズ：40文字×7行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サイズ変更：パネルサイズ変更時に最小サイズを下回らない範囲で上下左右に拡張</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="234" eb="237">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="306" eb="308">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="311" eb="313">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを最大化する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイダイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはアプリケーション右上の□ボタンをクリックする</t>
+    <rPh sb="13" eb="15">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを最大化する。このとき、テキストエリア1～3のサイズのみを拡大する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイダイカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはパネル上下左右をクリック・ドラッグする</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを変更する。このとき、テキストエリア1～3のサイズのみを拡大・縮小する。
+このとき、テキストエリア1～3の下限サイズを下回る縮小はできない。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを元に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターは画面サイズ最大化時、アプリケーション右上の□（縮小）ボタンをクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは元の画面サイズを保存する</t>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズをユースケース#5-2で保存した画面サイズに縮小する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを初期に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはパネル上部（ヘッダ）をダブルクリックする</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを初期サイズに戻す</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを最小化する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはアプリケーション右上の＿ボタンをクリックする</t>
+    <rPh sb="13" eb="15">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを最小化する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイショウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -881,6 +1884,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,6 +2954,126 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>923924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724149" y="400050"/>
+          <a:ext cx="6648451" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8362950" y="409575"/>
+          <a:ext cx="1028700" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3863,7 +4992,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3878,7 +5007,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3886,7 +5015,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3937,7 +5066,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>12</v>
       </c>
@@ -3947,19 +5076,23 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B36" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B37" s="18" t="s">
         <v>15</v>
       </c>
@@ -3967,56 +5100,64 @@
         <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="C39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="18" t="s">
+    <row r="40" spans="2:6" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C40" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="18" t="s">
+      <c r="D40" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4030,7 +5171,7 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4291,4 +5432,798 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E4" s="22">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E5" s="22">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E6" s="22">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="22">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E8" s="22">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E9" s="22">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E15" s="22">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E16" s="22">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E17" s="22">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E18" s="22">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E19" s="22">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E20" s="22">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E24" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E30" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E32" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E37" s="22">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E38" s="22">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E39" s="22">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E40" s="22">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E41" s="22">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E42" s="22">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E43" s="22">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E44" s="22">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E46" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E47" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E48" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E49" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E50" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E51" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E52" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E53" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E54" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="22">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E57" s="22">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E58" s="22">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E59" s="22">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E61" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E62" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E63" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E64" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E65" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E66" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E67" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E68" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E69" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E70" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E71" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E72" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="22">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E75" s="22">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E76" s="22">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E77" s="22">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E78" s="22"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="22">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="E80" s="22">
+        <v>2</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E81" s="22">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="22">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E84" s="22">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E85" s="22"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="22">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E87" s="22">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E88" s="22"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="22">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E90" s="22">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NecocoProject/docs/画面設計_Iteration1_20130310 .xlsx
+++ b/NecocoProject/docs/画面設計_Iteration1_20130310 .xlsx
@@ -1217,6 +1217,206 @@
     </rPh>
     <rPh sb="82" eb="84">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを最大化する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイダイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはアプリケーション右上の□ボタンをクリックする</t>
+    <rPh sb="13" eb="15">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを最大化する。このとき、テキストエリア1～3のサイズのみを拡大する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイダイカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはパネル上下左右をクリック・ドラッグする</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを変更する。このとき、テキストエリア1～3のサイズのみを拡大・縮小する。
+このとき、テキストエリア1～3の下限サイズを下回る縮小はできない。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを元に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターは画面サイズ最大化時、アプリケーション右上の□（縮小）ボタンをクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは元の画面サイズを保存する</t>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズをユースケース#5-2で保存した画面サイズに縮小する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを初期に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはパネル上部（ヘッダ）をダブルクリックする</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを初期サイズに戻す</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを最小化する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターはアプリケーション右上の＿ボタンをクリックする</t>
+    <rPh sb="13" eb="15">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは画面サイズを最小化する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイショウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1283,7 +1483,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>サイズ変更：パネルサイズ変更時に最小サイズを下回らない範囲で上下左右に拡張</t>
+      <t>サイズ変更：パネルサイズ変更時に最小サイズを下回らない範囲で上下左右に拡張。文字数・行数はサイズに応じて拡張</t>
     </r>
     <rPh sb="0" eb="2">
       <t>ニッキ</t>
@@ -1453,205 +1653,17 @@
     <rPh sb="319" eb="321">
       <t>カクチョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面サイズを最大化する</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サイダイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクターはアプリケーション右上の□ボタンをクリックする</t>
-    <rPh sb="13" eb="15">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムは画面サイズを最大化する。このとき、テキストエリア1～3のサイズのみを拡大する</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>サイダイカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カクダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面サイズを変更する</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクターはパネル上下左右をクリック・ドラッグする</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムは画面サイズを変更する。このとき、テキストエリア1～3のサイズのみを拡大・縮小する。
-このとき、テキストエリア1～3の下限サイズを下回る縮小はできない。</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シュクショウ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>シタマワ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>シュクショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面サイズを元に戻す</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクターは画面サイズ最大化時、アプリケーション右上の□（縮小）ボタンをクリックする</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュクショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムは元の画面サイズを保存する</t>
-    <rPh sb="5" eb="6">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムは画面サイズをユースケース#5-2で保存した画面サイズに縮小する</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュクショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面サイズを初期に戻す</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクターはパネル上部（ヘッダ）をダブルクリックする</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムは画面サイズを初期サイズに戻す</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面サイズを最小化する</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクターはアプリケーション右上の＿ボタンをクリックする</t>
-    <rPh sb="13" eb="15">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムは画面サイズを最小化する</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>サイショウカ</t>
+    <rPh sb="322" eb="325">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>カクチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1877,19 +1889,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5009,9 +5021,9 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -5076,8 +5088,8 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B36" s="18" t="s">
@@ -5086,11 +5098,11 @@
       <c r="C36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B37" s="18" t="s">
@@ -5102,8 +5114,8 @@
       <c r="D37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">
@@ -5115,8 +5127,8 @@
       <c r="D38" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
@@ -5129,7 +5141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" ht="243" x14ac:dyDescent="0.15">
       <c r="B40" s="18" t="s">
         <v>21</v>
       </c>
@@ -5137,7 +5149,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="54" x14ac:dyDescent="0.15">
@@ -5195,13 +5207,13 @@
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="23">
         <v>41365</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
@@ -5335,15 +5347,15 @@
       <c r="H9" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5374,9 +5386,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L9" s="1"/>
@@ -5451,7 +5463,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E1" s="22"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
@@ -5463,7 +5475,7 @@
       <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="19"/>
       <c r="F2" t="s">
         <v>49</v>
       </c>
@@ -5478,7 +5490,7 @@
       <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -5486,7 +5498,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
       <c r="F4" t="s">
@@ -5494,7 +5506,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>3</v>
       </c>
       <c r="F5" t="s">
@@ -5502,7 +5514,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>4</v>
       </c>
       <c r="F6" t="s">
@@ -5510,7 +5522,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>5</v>
       </c>
       <c r="F7" t="s">
@@ -5518,7 +5530,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>6</v>
       </c>
       <c r="F8" t="s">
@@ -5526,7 +5538,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>7</v>
       </c>
       <c r="F9" t="s">
@@ -5537,7 +5549,7 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F10" t="s">
@@ -5545,7 +5557,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F11" t="s">
@@ -5553,7 +5565,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E12" s="22"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13">
@@ -5565,7 +5577,7 @@
       <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" t="s">
@@ -5573,7 +5585,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2</v>
       </c>
       <c r="F14" t="s">
@@ -5581,7 +5593,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>3</v>
       </c>
       <c r="F15" t="s">
@@ -5589,7 +5601,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>4</v>
       </c>
       <c r="F16" t="s">
@@ -5597,7 +5609,7 @@
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>5</v>
       </c>
       <c r="F17" t="s">
@@ -5605,7 +5617,7 @@
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>6</v>
       </c>
       <c r="F18" t="s">
@@ -5613,7 +5625,7 @@
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>7</v>
       </c>
       <c r="F19" t="s">
@@ -5621,7 +5633,7 @@
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>8</v>
       </c>
       <c r="F20" t="s">
@@ -5632,7 +5644,7 @@
       <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
@@ -5640,7 +5652,7 @@
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F22" t="s">
@@ -5648,7 +5660,7 @@
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F23" t="s">
@@ -5656,7 +5668,7 @@
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F24" t="s">
@@ -5664,7 +5676,7 @@
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F25" t="s">
@@ -5672,7 +5684,7 @@
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>68</v>
       </c>
       <c r="F26" t="s">
@@ -5680,7 +5692,7 @@
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="s">
@@ -5688,7 +5700,7 @@
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F28" t="s">
@@ -5696,7 +5708,7 @@
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F29" t="s">
@@ -5704,7 +5716,7 @@
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="19" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
@@ -5712,7 +5724,7 @@
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F31" t="s">
@@ -5720,7 +5732,7 @@
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="19" t="s">
         <v>64</v>
       </c>
       <c r="F32" t="s">
@@ -5728,7 +5740,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F33" t="s">
@@ -5736,7 +5748,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E34" s="22"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35">
@@ -5748,7 +5760,7 @@
       <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="19">
         <v>1</v>
       </c>
       <c r="F35" t="s">
@@ -5756,7 +5768,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E36" s="22">
+      <c r="E36" s="19">
         <v>2</v>
       </c>
       <c r="F36" t="s">
@@ -5764,7 +5776,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E37" s="22">
+      <c r="E37" s="19">
         <v>3</v>
       </c>
       <c r="F37" t="s">
@@ -5772,7 +5784,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E38" s="22">
+      <c r="E38" s="19">
         <v>4</v>
       </c>
       <c r="F38" t="s">
@@ -5780,7 +5792,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E39" s="22">
+      <c r="E39" s="19">
         <v>5</v>
       </c>
       <c r="F39" t="s">
@@ -5788,7 +5800,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E40" s="22">
+      <c r="E40" s="19">
         <v>6</v>
       </c>
       <c r="F40" t="s">
@@ -5796,7 +5808,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E41" s="22">
+      <c r="E41" s="19">
         <v>7</v>
       </c>
       <c r="F41" t="s">
@@ -5804,7 +5816,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E42" s="22">
+      <c r="E42" s="19">
         <v>8</v>
       </c>
       <c r="F42" t="s">
@@ -5812,7 +5824,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E43" s="22">
+      <c r="E43" s="19">
         <v>8</v>
       </c>
       <c r="F43" t="s">
@@ -5820,7 +5832,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E44" s="22">
+      <c r="E44" s="19">
         <v>9</v>
       </c>
       <c r="F44" t="s">
@@ -5831,7 +5843,7 @@
       <c r="D45" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F45" t="s">
@@ -5839,7 +5851,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="19" t="s">
         <v>80</v>
       </c>
       <c r="F46" t="s">
@@ -5847,7 +5859,7 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="19" t="s">
         <v>84</v>
       </c>
       <c r="F47" t="s">
@@ -5855,7 +5867,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="19" t="s">
         <v>85</v>
       </c>
       <c r="F48" t="s">
@@ -5863,7 +5875,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="19" t="s">
         <v>86</v>
       </c>
       <c r="F49" t="s">
@@ -5871,7 +5883,7 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F50" t="s">
@@ -5879,7 +5891,7 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F51" t="s">
@@ -5887,7 +5899,7 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F52" t="s">
@@ -5895,7 +5907,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F53" t="s">
@@ -5903,7 +5915,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F54" t="s">
@@ -5911,7 +5923,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E55" s="22"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56">
@@ -5923,7 +5935,7 @@
       <c r="D56" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="19">
         <v>1</v>
       </c>
       <c r="F56" t="s">
@@ -5931,7 +5943,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E57" s="22">
+      <c r="E57" s="19">
         <v>2</v>
       </c>
       <c r="F57" t="s">
@@ -5939,7 +5951,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E58" s="22">
+      <c r="E58" s="19">
         <v>3</v>
       </c>
       <c r="F58" t="s">
@@ -5947,7 +5959,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E59" s="22">
+      <c r="E59" s="19">
         <v>4</v>
       </c>
       <c r="F59" t="s">
@@ -5958,7 +5970,7 @@
       <c r="D60" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F60" t="s">
@@ -5966,7 +5978,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="19" t="s">
         <v>80</v>
       </c>
       <c r="F61" t="s">
@@ -5974,7 +5986,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="19" t="s">
         <v>107</v>
       </c>
       <c r="F62" t="s">
@@ -5982,7 +5994,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="19" t="s">
         <v>85</v>
       </c>
       <c r="F63" t="s">
@@ -5990,7 +6002,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F64" t="s">
@@ -5998,7 +6010,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="19" t="s">
         <v>103</v>
       </c>
       <c r="F65" t="s">
@@ -6006,7 +6018,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F66" t="s">
@@ -6014,7 +6026,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="19" t="s">
         <v>105</v>
       </c>
       <c r="F67" t="s">
@@ -6022,7 +6034,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="19" t="s">
         <v>106</v>
       </c>
       <c r="F68" t="s">
@@ -6030,7 +6042,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="19" t="s">
         <v>108</v>
       </c>
       <c r="F69" t="s">
@@ -6038,7 +6050,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F70" t="s">
@@ -6046,7 +6058,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F71" t="s">
@@ -6054,7 +6066,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F72" t="s">
@@ -6066,36 +6078,36 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="19">
         <v>1</v>
       </c>
       <c r="F74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E75" s="19">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E76" s="19">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E75" s="22">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E76" s="22">
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E77" s="22">
+      <c r="E77" s="19">
         <v>4</v>
       </c>
       <c r="F77" t="s">
@@ -6103,35 +6115,35 @@
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E78" s="22"/>
+      <c r="E78" s="19"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="19">
         <v>1</v>
       </c>
       <c r="F79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="E80" s="19">
+        <v>2</v>
+      </c>
+      <c r="F80" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="E80" s="22">
-        <v>2</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E81" s="22">
+      <c r="E81" s="19">
         <v>3</v>
       </c>
       <c r="F81" t="s">
@@ -6139,87 +6151,87 @@
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E82" s="22"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="19">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E84" s="22">
+      <c r="E84" s="19">
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E85" s="22"/>
+      <c r="E85" s="19"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D86" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="19">
         <v>1</v>
       </c>
       <c r="F86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E87" s="19">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E87" s="22">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E88" s="22"/>
+      <c r="E88" s="19"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="19">
         <v>1</v>
       </c>
       <c r="F89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E90" s="19">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E90" s="22">
-        <v>2</v>
-      </c>
-      <c r="F90" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
